--- a/Planning and Notes/MSC planning.xlsx
+++ b/Planning and Notes/MSC planning.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniwa-my.sharepoint.com/personal/22910376_student_uwa_edu_au/Documents/University/UWA/2022/CITS3403 Agile Web Dev/Projects/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sapph\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5FC466B6-49C7-47AE-8FA2-3DFE6F3055EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{424AFA88-8543-49CF-8DB9-67565BFE89BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{109E78BB-2ADB-4DDE-BC86-99B699E82BEB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{109E78BB-2ADB-4DDE-BC86-99B699E82BEB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="50">
   <si>
     <t>Priority</t>
   </si>
@@ -54,9 +54,6 @@
     <t>Player profile</t>
   </si>
   <si>
-    <t>Player must be able to log in to their own profile</t>
-  </si>
-  <si>
     <t>profile stats</t>
   </si>
   <si>
@@ -87,15 +84,6 @@
     <t>include hints</t>
   </si>
   <si>
-    <t>include hints to make the game easier if a player is struggling</t>
-  </si>
-  <si>
-    <t>incorporate hint use to score</t>
-  </si>
-  <si>
-    <t>each time a player uses a hint it inhibits their ability to score maximum points</t>
-  </si>
-  <si>
     <t>game rules tab</t>
   </si>
   <si>
@@ -129,13 +117,73 @@
     <t>Display picture</t>
   </si>
   <si>
-    <t>display a picture of the correct answer when submit has been hit</t>
-  </si>
-  <si>
     <t>Display animal facts</t>
   </si>
   <si>
     <t>display the attributes of an animal once it has been submitted</t>
+  </si>
+  <si>
+    <t>display a picture of the correct answer when submit has been hit/when all guesses exhausted</t>
+  </si>
+  <si>
+    <t>a new hint is revealed after each wrong answer</t>
+  </si>
+  <si>
+    <t>max guesses</t>
+  </si>
+  <si>
+    <t>allow only a maximum of 6 guesses</t>
+  </si>
+  <si>
+    <t>user input</t>
+  </si>
+  <si>
+    <t>WORLDle style search box that matches animal names from a dictionary as you start typing</t>
+  </si>
+  <si>
+    <t>hint ranking</t>
+  </si>
+  <si>
+    <t>display wrong guesses</t>
+  </si>
+  <si>
+    <t>Add previously wrong guesses in a single column table above the search box (again like WORLDle)</t>
+  </si>
+  <si>
+    <t>Reusable attributes (hint allocation)</t>
+  </si>
+  <si>
+    <t>hints are ranked according to helpfulness. Broad hints (lvl 1) to start with and after 1st guess. Medium hints (lvl 2) after 2nd and 3rd guess. Specific hints (lvl 3) after 4th and 5th guess</t>
+  </si>
+  <si>
+    <t>In order to make animal objects reusable 'puzzles' each animal has &gt;8 lvl 1 hints &gt;4 lvl 2 hint and &gt;4 lvl 3 hints. Then each hint is randomly chosen BUT standardized across all users for the day</t>
+  </si>
+  <si>
+    <t>score is measured by how many guesses you got the correct answer in</t>
+  </si>
+  <si>
+    <t>scoring</t>
+  </si>
+  <si>
+    <t>must</t>
+  </si>
+  <si>
+    <t>should</t>
+  </si>
+  <si>
+    <t>update and vet puzzles</t>
+  </si>
+  <si>
+    <t>sharing achievement</t>
+  </si>
+  <si>
+    <t>Player must be able to log in to their own profile/use cookies to identify return users</t>
+  </si>
+  <si>
+    <t>using flask (as outlined in project description)</t>
+  </si>
+  <si>
+    <t>could</t>
   </si>
 </sst>
 </file>
@@ -167,7 +215,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -260,11 +308,124 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFA3A3A3"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFA3A3A3"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFA3A3A3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFA3A3A3"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -290,44 +451,144 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="11">
     <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color rgb="FFA3A3A3"/>
+        </left>
+        <right/>
+        <top style="medium">
+          <color rgb="FFA3A3A3"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color rgb="FFA3A3A3"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFA3A3A3"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFA3A3A3"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color rgb="FFA3A3A3"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFA3A3A3"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFA3A3A3"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color rgb="FFA3A3A3"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFA3A3A3"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color rgb="FFA3A3A3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color rgb="FFA3A3A3"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFA3A3A3"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFA3A3A3"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFA3A3A3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color rgb="FFA3A3A3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color rgb="FFA3A3A3"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFA3A3A3"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -363,183 +624,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color rgb="FFA3A3A3"/>
-        </left>
-        <right style="medium">
-          <color rgb="FFA3A3A3"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color rgb="FFA3A3A3"/>
-        </left>
-        <right/>
-        <top style="medium">
-          <color rgb="FFA3A3A3"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color rgb="FFA3A3A3"/>
-        </left>
-        <right style="medium">
-          <color rgb="FFA3A3A3"/>
-        </right>
-        <top style="medium">
-          <color rgb="FFA3A3A3"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color rgb="FFA3A3A3"/>
-        </left>
-        <right style="medium">
-          <color rgb="FFA3A3A3"/>
-        </right>
-        <top style="medium">
-          <color rgb="FFA3A3A3"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color rgb="FFA3A3A3"/>
-        </right>
-        <top style="medium">
-          <color rgb="FFA3A3A3"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="medium">
-          <color rgb="FFA3A3A3"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color rgb="FFA3A3A3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="medium">
-          <color rgb="FFA3A3A3"/>
-        </left>
-        <right style="medium">
-          <color rgb="FFA3A3A3"/>
-        </right>
-        <top style="medium">
-          <color rgb="FFA3A3A3"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FFA3A3A3"/>
-        </bottom>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -554,13 +638,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CE9E616C-4171-4C7A-A595-CD6DBBC73B00}" name="Table2" displayName="Table2" ref="A1:D2" insertRow="1" insertRowShift="1" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="18" tableBorderDxfId="19" totalsRowBorderDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CE9E616C-4171-4C7A-A595-CD6DBBC73B00}" name="Table2" displayName="Table2" ref="A1:D2" insertRow="1" insertRowShift="1" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4">
   <autoFilter ref="A1:D2" xr:uid="{CE9E616C-4171-4C7A-A595-CD6DBBC73B00}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{0BB14574-5B6A-4F28-AC52-AFC3D9051DEA}" name="Priority" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{A83922D5-46D9-40AA-8B24-26032A33D960}" name="Label" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{6A6E8E3C-A524-4DE1-875B-787538915A34}" name="Description" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{BFA17B0C-75BD-4BF8-AA7F-298C07342747}" name="Primary Asignee " dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{0BB14574-5B6A-4F28-AC52-AFC3D9051DEA}" name="Priority" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{A83922D5-46D9-40AA-8B24-26032A33D960}" name="Label" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{6A6E8E3C-A524-4DE1-875B-787538915A34}" name="Description" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{BFA17B0C-75BD-4BF8-AA7F-298C07342747}" name="Primary Asignee " dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -863,21 +947,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55DB3373-C0D0-4AC1-9283-932D22E65B98}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" zoomScale="113" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.7265625" customWidth="1"/>
-    <col min="2" max="2" width="19.36328125" customWidth="1"/>
-    <col min="3" max="3" width="42.7265625" customWidth="1"/>
-    <col min="4" max="4" width="16.6328125" customWidth="1"/>
+    <col min="1" max="1" width="14.77734375" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="42.77734375" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -891,13 +975,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
       <c r="D2" s="8"/>
     </row>
-    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -905,163 +989,259 @@
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="1" t="s">
+      <c r="C14" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="15"/>
+    </row>
+    <row r="15" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C15" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="D15" s="17"/>
+    </row>
+    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="1" t="s">
+      <c r="C16" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D16" s="19"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+    </row>
+    <row r="17" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="1"/>
+      <c r="C17" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="19"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+    </row>
+    <row r="18" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="19"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+    </row>
+    <row r="19" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="19"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+    </row>
+    <row r="20" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="19"/>
+    </row>
+    <row r="21" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="19"/>
+    </row>
+    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="19"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="Must">
+    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="Must">
       <formula>NOT(ISERROR(SEARCH("Must",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Should">
+    <cfRule type="containsText" dxfId="9" priority="2" operator="containsText" text="Should">
       <formula>NOT(ISERROR(SEARCH("Should",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Could">
+    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="Could">
       <formula>NOT(ISERROR(SEARCH("Could",A1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Planning and Notes/MSC planning.xlsx
+++ b/Planning and Notes/MSC planning.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sapph\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dougl\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{424AFA88-8543-49CF-8DB9-67565BFE89BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51DF83D6-01FB-4FC9-9101-4A7DC6EB2764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{109E78BB-2ADB-4DDE-BC86-99B699E82BEB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{109E78BB-2ADB-4DDE-BC86-99B699E82BEB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="52">
   <si>
     <t>Priority</t>
   </si>
@@ -184,6 +184,12 @@
   </si>
   <si>
     <t>could</t>
+  </si>
+  <si>
+    <t>Learn' tab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enables a player to click a dropdown or similar in order to see the attributes of a particular animal. https://www.w3schools.com/js/js_ajax_database.asp </t>
   </si>
 </sst>
 </file>
@@ -215,7 +221,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -421,11 +427,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -478,6 +504,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -947,21 +979,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55DB3373-C0D0-4AC1-9283-932D22E65B98}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="113" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="113" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.77734375" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" customWidth="1"/>
-    <col min="3" max="3" width="42.77734375" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" customWidth="1"/>
+    <col min="2" max="2" width="19.36328125" customWidth="1"/>
+    <col min="3" max="3" width="42.81640625" customWidth="1"/>
+    <col min="4" max="4" width="16.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -975,13 +1007,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
       <c r="D2" s="8"/>
     </row>
-    <row r="3" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -993,7 +1025,7 @@
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1005,7 +1037,7 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1017,7 +1049,7 @@
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1029,7 +1061,7 @@
       </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -1041,7 +1073,7 @@
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -1053,7 +1085,7 @@
       </c>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>43</v>
       </c>
@@ -1065,7 +1097,7 @@
       </c>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
@@ -1077,7 +1109,7 @@
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>23</v>
       </c>
@@ -1089,7 +1121,7 @@
       </c>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1101,7 +1133,7 @@
       </c>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
@@ -1113,7 +1145,7 @@
       </c>
       <c r="D13" s="7"/>
     </row>
-    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
@@ -1125,7 +1157,7 @@
       </c>
       <c r="D14" s="15"/>
     </row>
-    <row r="15" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="11" t="s">
         <v>8</v>
       </c>
@@ -1137,7 +1169,7 @@
       </c>
       <c r="D15" s="17"/>
     </row>
-    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="9" t="s">
         <v>3</v>
       </c>
@@ -1152,7 +1184,7 @@
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
     </row>
-    <row r="17" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="9" t="s">
         <v>8</v>
       </c>
@@ -1167,7 +1199,7 @@
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
     </row>
-    <row r="18" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="9" t="s">
         <v>3</v>
       </c>
@@ -1182,7 +1214,7 @@
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
     </row>
-    <row r="19" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="9" t="s">
         <v>8</v>
       </c>
@@ -1197,7 +1229,7 @@
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
     </row>
-    <row r="20" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="73" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="9" t="s">
         <v>49</v>
       </c>
@@ -1209,7 +1241,7 @@
       </c>
       <c r="D20" s="19"/>
     </row>
-    <row r="21" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="9" t="s">
         <v>44</v>
       </c>
@@ -1221,7 +1253,7 @@
       </c>
       <c r="D21" s="19"/>
     </row>
-    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="9" t="s">
         <v>44</v>
       </c>
@@ -1232,6 +1264,17 @@
         <v>48</v>
       </c>
       <c r="D22" s="19"/>
+    </row>
+    <row r="23" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="A23" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
